--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -2,33 +2,40 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="2565" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2025" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="20251" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="20252" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="20253" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="20254" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="20255" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="20256" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="20257" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="20258" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="20259" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="202510" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="202511" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="202512" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -39,7 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -47,26 +54,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -429,7 +425,48 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,388 +475,4355 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>December</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>45777</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Paychecks</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Misc</t>
         </is>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Subscriptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dining</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall Total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spray Paint at for D&amp;D
-</t>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Actual</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>45777</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-19.99</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Paychecks</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Subscriptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dining</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Recreational</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Schedule 1
-</t>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall Total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Input</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>45776</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Paychecks</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Misc</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Scantron Fumble
-</t>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Subscriptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dining</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall Total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Paychecks</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>45776</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-34.15</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Subscriptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dining</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Recreational</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spray Paint at for D&amp;D
-</t>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall Total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Paychecks</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45776</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-5.99</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Subscription</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Dropout</t>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Misc</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>45776</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Subscriptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dining</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Misc</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Snack
-</t>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall Total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Paychecks</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>45775</v>
-      </c>
-      <c r="B8" t="n">
-        <v>25</v>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Subscriptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dining</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Misc</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mela help w Longhorn
-</t>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall Total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Paychecks</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Output</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>45775</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-25</v>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Subscriptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Dining</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sonic Date
-</t>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall Total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Paychecks</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rent</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>45775</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-50.89</v>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Subscriptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Dining</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Longhorn date
-</t>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall Total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Paychecks</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Groceries</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>45772</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-9.039999999999999</v>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Subscriptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Dining</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chick fil a breakfast
-</t>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall Total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Paychecks</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Car</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45771</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-53.37</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Subscriptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dining</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall Total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Paychecks</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Groceries</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publix
-</t>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>45771</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.25</v>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Subscriptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dining</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Misc</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vending Machine
-</t>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall Total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Paychecks</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Subscriptions</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>45771</v>
-      </c>
-      <c r="B14" t="n">
-        <v>53.37</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dining</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Misc</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mom for Publix
-</t>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall Total</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Expected</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Paychecks</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Misc</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Rent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Groceries</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Credit Card</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Subscriptions</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Dining</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>45770</v>
-      </c>
-      <c r="B15" t="n">
-        <v>348.13</v>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Recreational</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Gifts</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Misc</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tax Refund
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>45769</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-2.75</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Misc</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vending Machine
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>45768</v>
-      </c>
-      <c r="B17" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Misc</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vending Machine
-</t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>45768</v>
-      </c>
-      <c r="B18" t="n">
-        <v>-34.85</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Dining</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anniversary Taco Bell
-</t>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>45768</v>
-      </c>
-      <c r="B19" t="n">
-        <v>40</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Misc</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Money I had
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>45765</v>
-      </c>
-      <c r="B20" t="n">
-        <v>-17.5</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Dining</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pho w Kai and Nick
-</t>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Overall Total</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="R1:S1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -427,114 +427,114 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-02-20</v>
+        <v>2026-02-21</v>
       </c>
       <c r="B2">
-        <v>-27.86</v>
+        <v>-9.99</v>
       </c>
       <c r="C2" t="str">
-        <v>Dining</v>
+        <v>Subscriptions</v>
       </c>
       <c r="D2" t="str">
-        <v>Taco Bell</v>
+        <v>Proton VPN</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-02-20</v>
+        <v>2026-02-21</v>
       </c>
       <c r="B3">
-        <v>-20</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="str">
-        <v>Subscriptions</v>
+        <v>Car</v>
       </c>
       <c r="D3" t="str">
-        <v>Claude Subscription</v>
+        <v>Gas - Shell</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-02-20</v>
+        <v>2026-02-21</v>
       </c>
       <c r="B4">
-        <v>-23.68</v>
+        <v>-24.43</v>
       </c>
       <c r="C4" t="str">
         <v>Dining</v>
       </c>
       <c r="D4" t="str">
-        <v>Taco Bell</v>
+        <v>Burger King</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-02-19</v>
+        <v>2026-02-20</v>
       </c>
       <c r="B5">
-        <v>-5</v>
+        <v>-27.86</v>
       </c>
       <c r="C5" t="str">
-        <v>Subscriptions</v>
+        <v>Dining</v>
       </c>
       <c r="D5" t="str">
-        <v>Patreon</v>
+        <v>Taco Bell</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-02-19</v>
+        <v>2026-02-20</v>
       </c>
       <c r="B6">
-        <v>1273.68</v>
+        <v>-20</v>
       </c>
       <c r="C6" t="str">
-        <v>Financial Aid</v>
+        <v>Subscriptions</v>
       </c>
       <c r="D6" t="str">
-        <v>UCF Grad Classes Financial Aid</v>
+        <v>Claude Subscription</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-02-17</v>
+        <v>2026-02-20</v>
       </c>
       <c r="B7">
-        <v>-2.13</v>
+        <v>-23.68</v>
       </c>
       <c r="C7" t="str">
-        <v>Misc</v>
+        <v>Dining</v>
       </c>
       <c r="D7" t="str">
-        <v>7-Eleven</v>
+        <v>Taco Bell</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-02-17</v>
+        <v>2026-02-19</v>
       </c>
       <c r="B8">
-        <v>-0.27</v>
+        <v>-5</v>
       </c>
       <c r="C8" t="str">
-        <v>Misc</v>
+        <v>Subscriptions</v>
       </c>
       <c r="D8" t="str">
-        <v>Service Assessment Fee</v>
+        <v>Patreon</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-02-17</v>
+        <v>2026-02-19</v>
       </c>
       <c r="B9">
-        <v>-16.46</v>
+        <v>1273.68</v>
       </c>
       <c r="C9" t="str">
-        <v>Dining</v>
+        <v>Financial Aid</v>
       </c>
       <c r="D9" t="str">
-        <v>Wingstop</v>
+        <v>UCF Grad Classes Financial Aid</v>
       </c>
     </row>
     <row r="10">
@@ -542,13 +542,13 @@
         <v>2026-02-17</v>
       </c>
       <c r="B10">
-        <v>-9.99</v>
+        <v>-2.13</v>
       </c>
       <c r="C10" t="str">
-        <v>Recreational</v>
+        <v>Misc</v>
       </c>
       <c r="D10" t="str">
-        <v>Skyrim DLC</v>
+        <v>7-Eleven</v>
       </c>
     </row>
     <row r="11">
@@ -556,13 +556,13 @@
         <v>2026-02-17</v>
       </c>
       <c r="B11">
-        <v>-7.91</v>
+        <v>-0.27</v>
       </c>
       <c r="C11" t="str">
-        <v>Subscriptions</v>
+        <v>Misc</v>
       </c>
       <c r="D11" t="str">
-        <v>Spotify</v>
+        <v>Service Assessment Fee</v>
       </c>
     </row>
     <row r="12">
@@ -570,13 +570,13 @@
         <v>2026-02-17</v>
       </c>
       <c r="B12">
-        <v>-8.99</v>
+        <v>-16.46</v>
       </c>
       <c r="C12" t="str">
-        <v>Subscriptions</v>
+        <v>Dining</v>
       </c>
       <c r="D12" t="str">
-        <v>Nexus Mods</v>
+        <v>Wingstop</v>
       </c>
     </row>
     <row r="13">
@@ -584,13 +584,13 @@
         <v>2026-02-17</v>
       </c>
       <c r="B13">
-        <v>-7.49</v>
+        <v>-9.99</v>
       </c>
       <c r="C13" t="str">
-        <v>Misc</v>
+        <v>Recreational</v>
       </c>
       <c r="D13" t="str">
-        <v>Target - Batteries</v>
+        <v>Skyrim DLC</v>
       </c>
     </row>
     <row r="14">
@@ -598,13 +598,13 @@
         <v>2026-02-17</v>
       </c>
       <c r="B14">
-        <v>-4.21</v>
+        <v>-7.91</v>
       </c>
       <c r="C14" t="str">
-        <v>Dates</v>
+        <v>Subscriptions</v>
       </c>
       <c r="D14" t="str">
-        <v>Orlando Museum of Art</v>
+        <v>Spotify</v>
       </c>
     </row>
     <row r="15">
@@ -612,13 +612,13 @@
         <v>2026-02-17</v>
       </c>
       <c r="B15">
-        <v>-20</v>
+        <v>-8.99</v>
       </c>
       <c r="C15" t="str">
-        <v>Dates</v>
+        <v>Subscriptions</v>
       </c>
       <c r="D15" t="str">
-        <v>Orlando Museum of Art</v>
+        <v>Nexus Mods</v>
       </c>
     </row>
     <row r="16">
@@ -626,13 +626,13 @@
         <v>2026-02-17</v>
       </c>
       <c r="B16">
-        <v>-39.1</v>
+        <v>-7.49</v>
       </c>
       <c r="C16" t="str">
         <v>Misc</v>
       </c>
       <c r="D16" t="str">
-        <v>Blanket</v>
+        <v>Target - Batteries</v>
       </c>
     </row>
     <row r="17">
@@ -640,13 +640,13 @@
         <v>2026-02-17</v>
       </c>
       <c r="B17">
-        <v>-11.07</v>
+        <v>-4.21</v>
       </c>
       <c r="C17" t="str">
-        <v>Dining</v>
+        <v>Dates</v>
       </c>
       <c r="D17" t="str">
-        <v>Chick fil a</v>
+        <v>Orlando Museum of Art</v>
       </c>
     </row>
     <row r="18">
@@ -654,13 +654,13 @@
         <v>2026-02-17</v>
       </c>
       <c r="B18">
-        <v>45</v>
+        <v>-20</v>
       </c>
       <c r="C18" t="str">
-        <v>Misc</v>
+        <v>Dates</v>
       </c>
       <c r="D18" t="str">
-        <v>Mela Zelle</v>
+        <v>Orlando Museum of Art</v>
       </c>
     </row>
     <row r="19">
@@ -668,52 +668,52 @@
         <v>2026-02-17</v>
       </c>
       <c r="B19">
-        <v>-15.11</v>
+        <v>-39.1</v>
       </c>
       <c r="C19" t="str">
-        <v>Groceries</v>
+        <v>Misc</v>
       </c>
       <c r="D19" t="str">
-        <v>Publix</v>
+        <v>Blanket</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-02-13</v>
+        <v>2026-02-17</v>
       </c>
       <c r="B20">
-        <v>-80</v>
+        <v>-11.07</v>
       </c>
       <c r="C20" t="str">
-        <v>Car</v>
+        <v>Dining</v>
       </c>
       <c r="D20" t="str">
-        <v>Car Insurance - Uncle Thomas Christmas Present</v>
+        <v>Chick fil a</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-02-13</v>
+        <v>2026-02-17</v>
       </c>
       <c r="B21">
-        <v>-40.05</v>
+        <v>45</v>
       </c>
       <c r="C21" t="str">
-        <v>Gifts</v>
+        <v>Misc</v>
       </c>
       <c r="D21" t="str">
-        <v>Michaels</v>
+        <v>Mela Zelle</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2026-02-13</v>
+        <v>2026-02-17</v>
       </c>
       <c r="B22">
-        <v>-29.95</v>
+        <v>-15.11</v>
       </c>
       <c r="C22" t="str">
-        <v>Gifts</v>
+        <v>Groceries</v>
       </c>
       <c r="D22" t="str">
         <v>Publix</v>
@@ -724,55 +724,55 @@
         <v>2026-02-13</v>
       </c>
       <c r="B23">
-        <v>-13.4</v>
+        <v>-80</v>
       </c>
       <c r="C23" t="str">
-        <v>Dining</v>
+        <v>Car</v>
       </c>
       <c r="D23" t="str">
-        <v>QDoba</v>
+        <v>Car Insurance - Uncle Thomas Christmas Present</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2026-02-12</v>
+        <v>2026-02-13</v>
       </c>
       <c r="B24">
-        <v>-7.11</v>
+        <v>-40.05</v>
       </c>
       <c r="C24" t="str">
-        <v>Misc</v>
+        <v>Gifts</v>
       </c>
       <c r="D24" t="str">
-        <v>Racetrack</v>
+        <v>Michaels</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2026-02-12</v>
+        <v>2026-02-13</v>
       </c>
       <c r="B25">
-        <v>-75</v>
+        <v>-29.95</v>
       </c>
       <c r="C25" t="str">
-        <v>Dates</v>
+        <v>Gifts</v>
       </c>
       <c r="D25" t="str">
-        <v>Bad Suns Tickets</v>
+        <v>Publix</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2026-02-12</v>
+        <v>2026-02-13</v>
       </c>
       <c r="B26">
-        <v>-20.32</v>
+        <v>-13.4</v>
       </c>
       <c r="C26" t="str">
         <v>Dining</v>
       </c>
       <c r="D26" t="str">
-        <v>McDonalds</v>
+        <v>QDoba</v>
       </c>
     </row>
     <row r="27">
@@ -780,83 +780,83 @@
         <v>2026-02-12</v>
       </c>
       <c r="B27">
-        <v>105</v>
+        <v>-7.11</v>
       </c>
       <c r="C27" t="str">
-        <v>Tips</v>
+        <v>Misc</v>
       </c>
       <c r="D27" t="str">
-        <v>Tips from work</v>
+        <v>Racetrack</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2026-02-10</v>
+        <v>2026-02-12</v>
       </c>
       <c r="B28">
-        <v>-21.72</v>
+        <v>-75</v>
       </c>
       <c r="C28" t="str">
-        <v>Dining</v>
+        <v>Dates</v>
       </c>
       <c r="D28" t="str">
-        <v>Panda Express</v>
+        <v>Bad Suns Tickets</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2026-02-10</v>
+        <v>2026-02-12</v>
       </c>
       <c r="B29">
-        <v>234.67</v>
+        <v>-20.32</v>
       </c>
       <c r="C29" t="str">
-        <v>Paychecks</v>
+        <v>Dining</v>
       </c>
       <c r="D29" t="str">
-        <v>Boathouse Paycheck</v>
+        <v>McDonalds</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2026-02-09</v>
+        <v>2026-02-12</v>
       </c>
       <c r="B30">
-        <v>-54</v>
+        <v>105</v>
       </c>
       <c r="C30" t="str">
-        <v>Credit Card</v>
+        <v>Tips</v>
       </c>
       <c r="D30" t="str">
-        <v>Credit Card Payment</v>
+        <v>Tips from work</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2026-02-09</v>
+        <v>2026-02-10</v>
       </c>
       <c r="B31">
-        <v>-0.21</v>
+        <v>-21.72</v>
       </c>
       <c r="C31" t="str">
-        <v>Misc</v>
+        <v>Dining</v>
       </c>
       <c r="D31" t="str">
-        <v>Service Assessment Fee</v>
+        <v>Panda Express</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2026-02-09</v>
+        <v>2026-02-10</v>
       </c>
       <c r="B32">
-        <v>-2.46</v>
+        <v>234.67</v>
       </c>
       <c r="C32" t="str">
-        <v>Dining</v>
+        <v>Paychecks</v>
       </c>
       <c r="D32" t="str">
-        <v>McDonalds</v>
+        <v>Boathouse Paycheck</v>
       </c>
     </row>
     <row r="33">
@@ -864,13 +864,13 @@
         <v>2026-02-09</v>
       </c>
       <c r="B33">
-        <v>-52.36</v>
+        <v>-54</v>
       </c>
       <c r="C33" t="str">
-        <v>Groceries</v>
+        <v>Credit Card</v>
       </c>
       <c r="D33" t="str">
-        <v>Publix</v>
+        <v>Credit Card Payment</v>
       </c>
     </row>
     <row r="34">
@@ -878,13 +878,13 @@
         <v>2026-02-09</v>
       </c>
       <c r="B34">
-        <v>-6.99</v>
+        <v>-0.21</v>
       </c>
       <c r="C34" t="str">
         <v>Misc</v>
       </c>
       <c r="D34" t="str">
-        <v>Unity Assets</v>
+        <v>Service Assessment Fee</v>
       </c>
     </row>
     <row r="35">
@@ -892,13 +892,13 @@
         <v>2026-02-09</v>
       </c>
       <c r="B35">
-        <v>-7.4</v>
+        <v>-2.46</v>
       </c>
       <c r="C35" t="str">
-        <v>Misc</v>
+        <v>Dining</v>
       </c>
       <c r="D35" t="str">
-        <v>Racetrack</v>
+        <v>McDonalds</v>
       </c>
     </row>
     <row r="36">
@@ -906,13 +906,13 @@
         <v>2026-02-09</v>
       </c>
       <c r="B36">
-        <v>-48.28</v>
+        <v>-52.36</v>
       </c>
       <c r="C36" t="str">
-        <v>Gifts</v>
+        <v>Groceries</v>
       </c>
       <c r="D36" t="str">
-        <v>Mela Books Amazon</v>
+        <v>Publix</v>
       </c>
     </row>
     <row r="37">
@@ -920,13 +920,13 @@
         <v>2026-02-09</v>
       </c>
       <c r="B37">
-        <v>-5</v>
+        <v>-6.99</v>
       </c>
       <c r="C37" t="str">
-        <v>Subscriptions</v>
+        <v>Misc</v>
       </c>
       <c r="D37" t="str">
-        <v>Patreon</v>
+        <v>Unity Assets</v>
       </c>
     </row>
     <row r="38">
@@ -934,139 +934,139 @@
         <v>2026-02-09</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>-7.4</v>
       </c>
       <c r="C38" t="str">
         <v>Misc</v>
       </c>
       <c r="D38" t="str">
-        <v>Panda Express from Mom</v>
+        <v>Racetrack</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2026-02-06</v>
+        <v>2026-02-09</v>
       </c>
       <c r="B39">
-        <v>-3</v>
+        <v>-48.28</v>
       </c>
       <c r="C39" t="str">
-        <v>Subscriptions</v>
+        <v>Gifts</v>
       </c>
       <c r="D39" t="str">
-        <v>Patreon</v>
+        <v>Mela Books Amazon</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2026-02-05</v>
+        <v>2026-02-09</v>
       </c>
       <c r="B40">
-        <v>-79.2</v>
+        <v>-5</v>
       </c>
       <c r="C40" t="str">
-        <v>Dining</v>
+        <v>Subscriptions</v>
       </c>
       <c r="D40" t="str">
-        <v>Bahama Breeze</v>
+        <v>Patreon</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2026-02-05</v>
+        <v>2026-02-09</v>
       </c>
       <c r="B41">
-        <v>-21.7</v>
+        <v>22</v>
       </c>
       <c r="C41" t="str">
-        <v>Dining</v>
+        <v>Misc</v>
       </c>
       <c r="D41" t="str">
-        <v>Chick Fil A</v>
+        <v>Panda Express from Mom</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2026-02-04</v>
+        <v>2026-02-06</v>
       </c>
       <c r="B42">
-        <v>-1.99</v>
+        <v>-3</v>
       </c>
       <c r="C42" t="str">
-        <v>Misc</v>
+        <v>Subscriptions</v>
       </c>
       <c r="D42" t="str">
-        <v/>
+        <v>Patreon</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2026-02-04</v>
+        <v>2026-02-05</v>
       </c>
       <c r="B43">
-        <v>40</v>
+        <v>-79.2</v>
       </c>
       <c r="C43" t="str">
-        <v>Misc</v>
+        <v>Dining</v>
       </c>
       <c r="D43" t="str">
-        <v>Zelle Payment</v>
+        <v>Bahama Breeze</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2026-02-03</v>
+        <v>2026-02-05</v>
       </c>
       <c r="B44">
-        <v>-0.64</v>
+        <v>-21.7</v>
       </c>
       <c r="C44" t="str">
-        <v>Misc</v>
+        <v>Dining</v>
       </c>
       <c r="D44" t="str">
-        <v>AWS</v>
+        <v>Chick Fil A</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2026-02-02</v>
+        <v>2026-02-04</v>
       </c>
       <c r="B45">
-        <v>-432.67</v>
+        <v>-1.99</v>
       </c>
       <c r="C45" t="str">
-        <v>Rent</v>
+        <v>Misc</v>
       </c>
       <c r="D45" t="str">
-        <v>Rent</v>
+        <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2026-02-02</v>
+        <v>2026-02-04</v>
       </c>
       <c r="B46">
-        <v>-10.28</v>
+        <v>40</v>
       </c>
       <c r="C46" t="str">
-        <v>Groceries</v>
+        <v>Misc</v>
       </c>
       <c r="D46" t="str">
-        <v>Publix</v>
+        <v>Zelle Payment</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2026-02-02</v>
+        <v>2026-02-03</v>
       </c>
       <c r="B47">
-        <v>-59.06</v>
+        <v>-0.64</v>
       </c>
       <c r="C47" t="str">
-        <v>Dining</v>
+        <v>Misc</v>
       </c>
       <c r="D47" t="str">
-        <v>Fancy Q Sushi</v>
+        <v>AWS</v>
       </c>
     </row>
     <row r="48">
@@ -1074,13 +1074,13 @@
         <v>2026-02-02</v>
       </c>
       <c r="B48">
-        <v>-31.61</v>
+        <v>-432.67</v>
       </c>
       <c r="C48" t="str">
-        <v>Car</v>
+        <v>Rent</v>
       </c>
       <c r="D48" t="str">
-        <v>Gas</v>
+        <v>Rent</v>
       </c>
     </row>
     <row r="49">
@@ -1088,13 +1088,13 @@
         <v>2026-02-02</v>
       </c>
       <c r="B49">
-        <v>-27.9</v>
+        <v>-10.28</v>
       </c>
       <c r="C49" t="str">
-        <v>Dates</v>
+        <v>Groceries</v>
       </c>
       <c r="D49" t="str">
-        <v>Iron Lung Concessions</v>
+        <v>Publix</v>
       </c>
     </row>
     <row r="50">
@@ -1102,13 +1102,13 @@
         <v>2026-02-02</v>
       </c>
       <c r="B50">
-        <v>-16.84</v>
+        <v>-59.06</v>
       </c>
       <c r="C50" t="str">
-        <v>Groceries</v>
+        <v>Dining</v>
       </c>
       <c r="D50" t="str">
-        <v>Walmart for Bucket</v>
+        <v>Fancy Q Sushi</v>
       </c>
     </row>
     <row r="51">
@@ -1116,13 +1116,13 @@
         <v>2026-02-02</v>
       </c>
       <c r="B51">
-        <v>-16</v>
+        <v>-31.61</v>
       </c>
       <c r="C51" t="str">
-        <v>Misc</v>
+        <v>Car</v>
       </c>
       <c r="D51" t="str">
-        <v>Starship Technologies?</v>
+        <v>Gas</v>
       </c>
     </row>
     <row r="52">
@@ -1130,13 +1130,13 @@
         <v>2026-02-02</v>
       </c>
       <c r="B52">
-        <v>-22.77</v>
+        <v>-27.9</v>
       </c>
       <c r="C52" t="str">
-        <v>Dining</v>
+        <v>Dates</v>
       </c>
       <c r="D52" t="str">
-        <v>Mcdonalds</v>
+        <v>Iron Lung Concessions</v>
       </c>
     </row>
     <row r="53">
@@ -1144,32 +1144,816 @@
         <v>2026-02-02</v>
       </c>
       <c r="B53">
-        <v>40</v>
+        <v>-16.84</v>
       </c>
       <c r="C53" t="str">
-        <v>Misc</v>
+        <v>Groceries</v>
       </c>
       <c r="D53" t="str">
-        <v>Zelle from Mela</v>
+        <v>Walmart for Bucket</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2026-02-01</v>
+        <v>2026-02-02</v>
       </c>
       <c r="B54">
-        <v>1152.06</v>
+        <v>-16</v>
       </c>
       <c r="C54" t="str">
+        <v>Misc</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Starship Technologies?</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>2026-02-02</v>
+      </c>
+      <c r="B55">
+        <v>-22.77</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Dining</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Mcdonalds</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>2026-02-02</v>
+      </c>
+      <c r="B56">
+        <v>40</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Misc</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Zelle from Mela</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>2026-01-29</v>
+      </c>
+      <c r="B57">
+        <v>25</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Tips</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Cash App Tip</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>2026-01-29</v>
+      </c>
+      <c r="B58">
+        <v>-6.5</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Subscriptions</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Patreon</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>2026-01-28</v>
+      </c>
+      <c r="B59">
+        <v>-30.19</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Groceries</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Walmart</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>2026-01-28</v>
+      </c>
+      <c r="B60">
+        <v>-5.99</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Subscriptions</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Dropout</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>2026-01-27</v>
+      </c>
+      <c r="B61">
+        <v>-17.78</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Dining</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Arbys</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>2026-01-27</v>
+      </c>
+      <c r="B62">
+        <v>111.71</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Paychecks</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Boathouse Paycheck</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="B63">
+        <v>-16.22</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Misc</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Iron Lung Movie Ticket</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="B64">
+        <v>-14.7</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Car</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Racetrack</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="B65">
+        <v>-24.37</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Recreational</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Amazon - Epoxy Resin</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="B66">
+        <v>-9.99</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Subscriptions</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Proton VPN</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>2026-01-26</v>
+      </c>
+      <c r="B67">
+        <v>263.1</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Financial Aid</v>
+      </c>
+      <c r="D67" t="str">
+        <v>UCF Financial Aid - Spring 2026</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B68">
+        <v>-33.34</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Dining</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Culvers</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>2026-01-22</v>
+      </c>
+      <c r="B69">
+        <v>-20.32</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Dining</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Mcdonalds</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B70">
+        <v>-185.71</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Rent</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Utilities to Kai</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B71">
+        <v>-19.9</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Dining</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Chipotle</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>2026-01-21</v>
+      </c>
+      <c r="B72">
+        <v>16</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Misc</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Zelle Payment from Nick</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B73">
+        <v>-5</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Subscriptions</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Patreon</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B74">
+        <v>-20.1</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Recreational</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Transparent PLA</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B75">
+        <v>-70.28</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Dining</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Rock and Brews</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B76">
+        <v>-3.21</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Groceries</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Target</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B77">
+        <v>-34.85</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Groceries</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Publix Groceries</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>2026-01-20</v>
+      </c>
+      <c r="B78">
+        <v>40</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Misc</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Zelle from Mela</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B79">
+        <v>-141</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Car</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Car Insurance</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>2026-01-16</v>
+      </c>
+      <c r="B80">
+        <v>-6.78</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Subscriptions</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Spotify</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>2026-01-15</v>
+      </c>
+      <c r="B81">
+        <v>-22.79</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Groceries</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Publix</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B82">
+        <v>-11.7</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Dining</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Wawa Fries</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B83">
+        <v>-33.29</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Car</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Wawa Gas</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B84">
+        <v>-33.26</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Dining</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Huey Magoos</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>2026-01-13</v>
+      </c>
+      <c r="B85">
+        <v>544.39</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Paychecks</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Boat House Paycheck</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B86">
+        <v>-0.27</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Misc</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Int'l Service Assessment</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B87">
+        <v>-26.73</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Gifts</v>
+      </c>
+      <c r="D87" t="str">
+        <v>The Collective - Dice for Josie</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B88">
+        <v>-37.11</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Dining</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Chipotle</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B89">
+        <v>-8.99</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Subscriptions</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Nexus Mods</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>2026-01-12</v>
+      </c>
+      <c r="B90">
+        <v>37.11</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Misc</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Mom pays for Chipotle</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>2026-01-09</v>
+      </c>
+      <c r="B91">
+        <v>-20.04</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Dining</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Chick-fil-a</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>2026-01-08</v>
+      </c>
+      <c r="B92">
+        <v>-50</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Credit Card</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Credit Card Payment</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>2026-01-08</v>
+      </c>
+      <c r="B93">
+        <v>-27.12</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Car</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Wawa Gas</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>2026-01-08</v>
+      </c>
+      <c r="B94">
+        <v>-19.46</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Dining</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Wawa Food</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>2026-01-07</v>
+      </c>
+      <c r="B95">
+        <v>-72.41</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Recreational</v>
+      </c>
+      <c r="D95" t="str">
+        <v>S Toys</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>2026-01-07</v>
+      </c>
+      <c r="B96">
+        <v>-5</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Subscriptions</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Patreon</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>2026-01-07</v>
+      </c>
+      <c r="B97">
+        <v>10.5</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Misc</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Zelle from Nick</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>2026-01-07</v>
+      </c>
+      <c r="B98">
+        <v>9.5</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Misc</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Zelle from Kai</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>2026-01-07</v>
+      </c>
+      <c r="B99">
+        <v>-27.05</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Groceries</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Publix</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>2026-01-06</v>
+      </c>
+      <c r="B100">
+        <v>-3</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Subscriptions</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Patreon</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>2026-01-06</v>
+      </c>
+      <c r="B101">
+        <v>-9.99</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Recreational</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Outer Wilds</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>2026-01-06</v>
+      </c>
+      <c r="B102">
+        <v>236</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Paychecks</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Boathouse Paycheck</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>2026-01-05</v>
+      </c>
+      <c r="B103">
+        <v>-21.11</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Dining</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Chipotle</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>2026-01-05</v>
+      </c>
+      <c r="B104">
+        <v>-1.99</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Misc</v>
+      </c>
+      <c r="D104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>2026-01-05</v>
+      </c>
+      <c r="B105">
+        <v>-32.56</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Car</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Racetrack - Gas</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>2026-01-05</v>
+      </c>
+      <c r="B106">
+        <v>-22.05</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Dining</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Dunkin Donuts</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>2026-01-05</v>
+      </c>
+      <c r="B107">
+        <v>-11.84</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Groceries</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Racetrac - Snacks</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>2026-01-05</v>
+      </c>
+      <c r="B108">
+        <v>-68.01</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Dining</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Korean BBQ</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>2026-01-02</v>
+      </c>
+      <c r="B109">
+        <v>-0.64</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Misc</v>
+      </c>
+      <c r="D109" t="str">
+        <v>AWS</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>2026-01-01</v>
+      </c>
+      <c r="B110">
+        <v>1091.39</v>
+      </c>
+      <c r="C110" t="str">
         <v>Lazy Rollover</v>
       </c>
-      <c r="D54" t="str">
-        <v>Previous Money from January</v>
+      <c r="D110" t="str">
+        <v>Previous Money from December</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D54"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D110"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3174,44 +3958,86 @@
   </sheetViews>
   <sheetData>
     <row r="1">
+      <c r="A1" t="str">
+        <v/>
+      </c>
       <c r="B1" t="str">
         <v>January</v>
       </c>
+      <c r="C1" t="str">
+        <v/>
+      </c>
       <c r="D1" t="str">
         <v>February</v>
       </c>
+      <c r="E1" t="str">
+        <v/>
+      </c>
       <c r="F1" t="str">
         <v>March</v>
       </c>
+      <c r="G1" t="str">
+        <v/>
+      </c>
       <c r="H1" t="str">
         <v>April</v>
       </c>
+      <c r="I1" t="str">
+        <v/>
+      </c>
       <c r="J1" t="str">
         <v>May</v>
       </c>
+      <c r="K1" t="str">
+        <v/>
+      </c>
       <c r="L1" t="str">
         <v>June</v>
       </c>
+      <c r="M1" t="str">
+        <v/>
+      </c>
       <c r="N1" t="str">
         <v>July</v>
       </c>
+      <c r="O1" t="str">
+        <v/>
+      </c>
       <c r="P1" t="str">
         <v>August</v>
       </c>
+      <c r="Q1" t="str">
+        <v/>
+      </c>
       <c r="R1" t="str">
         <v>September</v>
       </c>
+      <c r="S1" t="str">
+        <v/>
+      </c>
       <c r="T1" t="str">
         <v>October</v>
       </c>
+      <c r="U1" t="str">
+        <v/>
+      </c>
       <c r="V1" t="str">
         <v>November</v>
       </c>
+      <c r="W1" t="str">
+        <v/>
+      </c>
       <c r="X1" t="str">
         <v>December</v>
       </c>
+      <c r="Y1" t="str">
+        <v/>
+      </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
       <c r="B2" t="str">
         <v>Expected</v>
       </c>
@@ -3289,103 +4115,1312 @@
       <c r="A3" t="str">
         <v>Input</v>
       </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
+        <v/>
+      </c>
+      <c r="Q3" t="str">
+        <v/>
+      </c>
+      <c r="R3" t="str">
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <v/>
+      </c>
+      <c r="Y3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>Paychecks</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
         <v>Financial Aid</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="str">
+        <v/>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="str">
+        <v/>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" t="str">
+        <v/>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="str">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
         <v>Misc</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="str">
+        <v/>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="str">
+        <v/>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="str">
+        <v/>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" t="str">
+        <v/>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6" t="str">
+        <v/>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="str">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <v>Total</v>
       </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
+      </c>
+      <c r="Q7" t="str">
+        <v/>
+      </c>
+      <c r="R7" t="str">
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <v/>
+      </c>
+      <c r="Y7" t="str">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <v>Output</v>
       </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
+      </c>
+      <c r="Q8" t="str">
+        <v/>
+      </c>
+      <c r="R8" t="str">
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <v/>
+      </c>
+      <c r="Y8" t="str">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
         <v>Rent</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="str">
+        <v/>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="str">
+        <v/>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" t="str">
+        <v/>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9" t="str">
+        <v/>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <v>Groceries</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="str">
+        <v/>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="str">
+        <v/>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" t="str">
+        <v/>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10" t="str">
+        <v/>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
         <v>Car</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="str">
+        <v/>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="str">
+        <v/>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" t="str">
+        <v/>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11" t="str">
+        <v/>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <v>Credit Card</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="str">
+        <v/>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="str">
+        <v/>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="str">
+        <v/>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12" t="str">
+        <v/>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="str">
+        <v/>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
         <v>Subscriptions</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="str">
+        <v/>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="str">
+        <v/>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13" t="str">
+        <v/>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13" t="str">
+        <v/>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="str">
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <v>Dining</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="str">
+        <v/>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="str">
+        <v/>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="str">
+        <v/>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14" t="str">
+        <v/>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14" t="str">
+        <v/>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="str">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <v>Recreational</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="str">
+        <v/>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="str">
+        <v/>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="str">
+        <v/>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15" t="str">
+        <v/>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15" t="str">
+        <v/>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="str">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <v>Gifts</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="str">
+        <v/>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="str">
+        <v/>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16" t="str">
+        <v/>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16" t="str">
+        <v/>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="str">
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <v>Misc</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="str">
+        <v/>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="str">
+        <v/>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17" t="str">
+        <v/>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17" t="str">
+        <v/>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <v>Total</v>
       </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <v/>
+      </c>
+      <c r="X18" t="str">
+        <v/>
+      </c>
+      <c r="Y18" t="str">
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <v>Overall Total</v>
       </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <v/>
+      </c>
+      <c r="Y19" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="R1:S1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:Y19"/>
   </ignoredErrors>
